--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject16.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject16.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -209,10 +209,10 @@
         <v>0</v>
       </c>
       <c r="AB1" s="0">
-        <v>0</v>
+        <v>0.89549528031059378</v>
       </c>
       <c r="AC1" s="0">
-        <v>0</v>
+        <v>0.95370735663616191</v>
       </c>
       <c r="AD1" s="0">
         <v>0</v>
@@ -263,7 +263,7 @@
         <v>0</v>
       </c>
       <c r="AT1" s="0">
-        <v>0</v>
+        <v>0.78614529548785272</v>
       </c>
       <c r="AU1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -329,12 +329,12 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.98203063314271222</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>0</v>
+        <v>0.88833881781824053</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="0">
-        <v>0</v>
+        <v>0.5353720418992256</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="0">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="AX2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.70426158392235205</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="Z3" s="0">
-        <v>0</v>
+        <v>0.95417801299537564</v>
       </c>
       <c r="AA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="0">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>0</v>
+        <v>0.56933332455952623</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="AV3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="0">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="0">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>0</v>
+        <v>0.9845873651334307</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>0</v>
+        <v>0.77128243467699231</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.79974782891422946</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.98784912949161852</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>0</v>
+        <v>0.68985349565308995</v>
       </c>
       <c r="U4" s="0">
-        <v>0</v>
+        <v>0.95478961254177275</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>0</v>
+        <v>0.93648132889232627</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>0</v>
+        <v>0.68595186009262021</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>0</v>
+        <v>0.92165048005632966</v>
       </c>
       <c r="Y5" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0</v>
+        <v>0.87526273776567631</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="0">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0</v>
+        <v>0.63696561847120403</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>1</v>
+        <v>0.70698951386246078</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
       </c>
       <c r="W6" s="0">
-        <v>0</v>
+        <v>0.95892930624620942</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>0</v>
+        <v>0.64754035701776624</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>0</v>
+        <v>0.83214371436263324</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.92732867960413135</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="0">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="0">
-        <v>0</v>
+        <v>0.51923385716905313</v>
       </c>
       <c r="AX7" s="0">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="0">
-        <v>0</v>
+        <v>0.95594605493948437</v>
       </c>
       <c r="BC7" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>0</v>
+        <v>0.69389605044739255</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="0">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>1</v>
+        <v>0.84343370262154216</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.84681488146245809</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.5111964023359814</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>0</v>
+        <v>0.86330938943354107</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -1911,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="AT9" s="0">
-        <v>0</v>
+        <v>0.59246794832763139</v>
       </c>
       <c r="AU9" s="0">
         <v>0</v>
       </c>
       <c r="AV9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="0">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0</v>
+        <v>0.62751977089830624</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="0">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>0</v>
+        <v>0.74901745268545983</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.69674318620072451</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2224,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.89523967034578356</v>
       </c>
       <c r="N11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="0">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.88717469434049256</v>
       </c>
       <c r="AM11" s="0">
-        <v>0</v>
+        <v>0.79242256914421672</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="0">
-        <v>0</v>
+        <v>0.83056527251924139</v>
       </c>
       <c r="AV11" s="0">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="0">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
-        <v>0</v>
+        <v>0.8138410622633383</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>0</v>
+        <v>0.55060981765386252</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="0">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>0</v>
+        <v>0.51934036273230533</v>
       </c>
       <c r="AO12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0</v>
+        <v>0.60594851097558078</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>0</v>
+        <v>0.88099246098000505</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>0</v>
+        <v>0.88324983237038279</v>
       </c>
     </row>
     <row r="13">
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.68758051145879562</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.91492533423496614</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>1</v>
+        <v>0.7927174507488054</v>
       </c>
       <c r="AB13" s="0">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="0">
-        <v>0</v>
+        <v>0.94634582839124071</v>
       </c>
       <c r="AR13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>0</v>
+        <v>0.59057917082961353</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>0</v>
+        <v>0.69968637885334206</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="0">
-        <v>0</v>
+        <v>0.81480263304449818</v>
       </c>
       <c r="X14" s="0">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="0">
-        <v>0</v>
+        <v>0.93183659069096003</v>
       </c>
       <c r="AR14" s="0">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="BC14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="0">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>0</v>
+        <v>0.87069074396688961</v>
       </c>
       <c r="C15" s="0">
         <v>0</v>
@@ -3042,16 +3042,16 @@
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>0</v>
+        <v>0.96365757945035402</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.67729085974192182</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>0</v>
+        <v>0.9858759565266999</v>
       </c>
       <c r="Y15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="0">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>0</v>
+        <v>0.56078951224048579</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="AV15" s="0">
-        <v>0</v>
+        <v>0.72869476826049151</v>
       </c>
       <c r="AW15" s="0">
         <v>0</v>
       </c>
       <c r="AX15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="0">
         <v>0</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>0</v>
+        <v>0.77481620576689414</v>
       </c>
       <c r="BO15" s="0">
         <v>0</v>
       </c>
       <c r="BP15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.56397772760895659</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>0</v>
+        <v>0.94508933998498912</v>
       </c>
       <c r="X16" s="0">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="0">
-        <v>0</v>
+        <v>0.61416067464773483</v>
       </c>
       <c r="AC16" s="0">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="0">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="0">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="BH16" s="0">
-        <v>0</v>
+        <v>0.92063908320635957</v>
       </c>
       <c r="BI16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0</v>
+        <v>0.5361653758717746</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.83929183486949299</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>0</v>
+        <v>0.88371758201581352</v>
       </c>
       <c r="AH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="AR17" s="0">
-        <v>0</v>
+        <v>0.59423114617691786</v>
       </c>
       <c r="AS17" s="0">
-        <v>0</v>
+        <v>0.73505271921320692</v>
       </c>
       <c r="AT17" s="0">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="0">
-        <v>0</v>
+        <v>0.55845243625966434</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>0</v>
+        <v>0.98949138222154875</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0</v>
+        <v>0.69456269180345254</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.67985748520311373</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.91001741079265408</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.90239298459643313</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.66134195635376747</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>0</v>
+        <v>0.6004595736700018</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.77369498358680633</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.78261340186083739</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4257,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>0.6779109455418717</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>1</v>
+        <v>0.56977664718124843</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.82264684602023364</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.84093683162649158</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="0">
-        <v>0</v>
+        <v>0.803884324992578</v>
       </c>
       <c r="AB21" s="0">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="0">
-        <v>0</v>
+        <v>0.62054806768354087</v>
       </c>
       <c r="AX21" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.88090123789898955</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4529,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="Z22" s="0">
-        <v>0</v>
+        <v>0.98672529177548396</v>
       </c>
       <c r="AA22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4553,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="AH22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="0">
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>0</v>
+        <v>0.6225052365111905</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0</v>
+        <v>0.82616151737317467</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="0">
-        <v>0</v>
+        <v>0.84665764371315944</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
@@ -4699,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="0">
-        <v>0</v>
+        <v>0.77739151739588519</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>0</v>
+        <v>0.78802422789729842</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.8939949006864264</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>0</v>
+        <v>0.80575646658486333</v>
       </c>
       <c r="AD23" s="0">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="0">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="0">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="BL23" s="0">
-        <v>0</v>
+        <v>0.6832608237922001</v>
       </c>
       <c r="BM23" s="0">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="0">
-        <v>0</v>
+        <v>0.53985775297270666</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0</v>
+        <v>0.61540450961900195</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>0</v>
+        <v>0.85468838380307233</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.82590401505009781</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>0</v>
+        <v>0.67785966827405453</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>0</v>
+        <v>0.81235260454860936</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>0.76871435404093424</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0</v>
+        <v>0.57878155587469071</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>0</v>
+        <v>0.81170018729228199</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0</v>
+        <v>0.70072661291203742</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.61678577653246158</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5374,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
       </c>
       <c r="AI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="0">
         <v>0</v>
@@ -5413,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="AT26" s="0">
-        <v>0</v>
+        <v>0.77009475457023502</v>
       </c>
       <c r="AU26" s="0">
         <v>0</v>
       </c>
       <c r="AV26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5490,19 +5490,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
+        <v>0.75139379810848661</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>1</v>
+        <v>0.68188754456355671</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="0">
         <v>0</v>
@@ -5544,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>0</v>
+        <v>0.69082695936774186</v>
       </c>
       <c r="V27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.60327734755896678</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.83194280897397421</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="0">
         <v>0</v>
@@ -5625,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>0</v>
+        <v>0.62307837118364739</v>
       </c>
       <c r="AW27" s="0">
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="0">
         <v>0</v>
@@ -5655,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="BF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0</v>
+        <v>0.53465075156968067</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>0</v>
+        <v>0.77321143324323682</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="0">
-        <v>0</v>
+        <v>0.60273621426488266</v>
       </c>
       <c r="Q28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="0">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="0">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="0">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>0</v>
+        <v>0.68836833606436376</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0</v>
+        <v>0.6594385446940918</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
+        <v>0.6495299648510573</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0</v>
+        <v>0.71396947286929136</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="BA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0</v>
+        <v>0.82379757410967669</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.64754623679071677</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="0">
-        <v>0</v>
+        <v>0.96250636705366222</v>
       </c>
       <c r="AJ30" s="0">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="BC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD30" s="0">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="0">
-        <v>0</v>
+        <v>0.73045837220067944</v>
       </c>
       <c r="BG30" s="0">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>0.75811010321917394</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.56769443936653619</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0</v>
+        <v>0.97349536515975466</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="0">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>0</v>
+        <v>0.69702754204406281</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AV32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="0">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="BB32" s="0">
-        <v>0</v>
+        <v>0.83511487356728464</v>
       </c>
       <c r="BC32" s="0">
         <v>0</v>
@@ -6700,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>0</v>
+        <v>0.76052966348594775</v>
       </c>
       <c r="BL32" s="0">
-        <v>0</v>
+        <v>0.98468020981176108</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0</v>
+        <v>0.98173215322926466</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6795,13 +6795,13 @@
         <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="0">
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.63290277021780272</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="0">
-        <v>0</v>
+        <v>0.73830158245210664</v>
       </c>
       <c r="BL33" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0</v>
+        <v>0.53261083716113911</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>0</v>
+        <v>0.96011713535295096</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>0</v>
+        <v>0.88551752005580275</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="0">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="0">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0">
-        <v>0</v>
+        <v>0.83219966773199316</v>
       </c>
       <c r="AE35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.93408855746302821</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="0">
-        <v>0</v>
+        <v>0.76543096001122435</v>
       </c>
       <c r="AO35" s="0">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="0">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>0</v>
+        <v>0.92464010884009462</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>0</v>
+        <v>0.71654008186369422</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>0</v>
+        <v>0.63148025670726882</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>0</v>
+        <v>0.68594112877361524</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>0</v>
+        <v>0.72137650852370427</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="AW37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="0">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="BH37" s="0">
-        <v>0</v>
+        <v>0.92012051951124085</v>
       </c>
       <c r="BI37" s="0">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="BO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.87448660888765417</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
@@ -7864,16 +7864,16 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.58182614555943091</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="AY38" s="0">
-        <v>0</v>
+        <v>0.55831667962554232</v>
       </c>
       <c r="AZ38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -7983,10 +7983,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>0</v>
+        <v>0.75292533812017437</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="0">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.94346187319202035</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.83191124056137555</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.99734078586890307</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>0</v>
+        <v>0.92692044498818038</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>0</v>
+        <v>0.73305258706232101</v>
       </c>
       <c r="M40" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0</v>
+        <v>0.55064705988967677</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="0">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="0">
-        <v>0</v>
+        <v>0.78388597761007928</v>
       </c>
       <c r="AJ40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.81338364835179866</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.97365672183286933</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0</v>
+        <v>0.77676527307152332</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>1</v>
+        <v>0.8746940582830447</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL40" s="0">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="0">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.94101824586739446</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="0">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="BF41" s="0">
-        <v>0</v>
+        <v>0.73115546400062348</v>
       </c>
       <c r="BG41" s="0">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="BI41" s="0">
-        <v>0</v>
+        <v>0.81995951097113295</v>
       </c>
       <c r="BJ41" s="0">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="BL41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM41" s="0">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
@@ -8685,13 +8685,13 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.54700780939603932</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.78489874887988065</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="0">
         <v>0</v>
@@ -8742,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="BE42" s="0">
-        <v>0</v>
+        <v>0.82500062831119303</v>
       </c>
       <c r="BF42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0</v>
+        <v>0.67980737310689177</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8816,10 +8816,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>0</v>
+        <v>0.72016059760599815</v>
       </c>
       <c r="N43" s="0">
-        <v>0</v>
+        <v>0.8823590296943945</v>
       </c>
       <c r="O43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.62029638163392864</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="BN43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO43" s="0">
         <v>0</v>
@@ -9031,10 +9031,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>0</v>
+        <v>0.74855226208937986</v>
       </c>
       <c r="R44" s="0">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.749666862512542</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.98029926613787888</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="0">
         <v>0</v>
@@ -9195,13 +9195,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0">
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>0</v>
+        <v>0.57087145545700224</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0</v>
+        <v>0.63453414452168477</v>
       </c>
       <c r="R45" s="0">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>0</v>
+        <v>0.92665843626149691</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.53124391096292833</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="AV45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="0">
         <v>0</v>
@@ -9348,13 +9348,13 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>0</v>
+        <v>0.89653096374316488</v>
       </c>
       <c r="BB45" s="0">
         <v>0</v>
       </c>
       <c r="BC45" s="0">
-        <v>0</v>
+        <v>0.77454458327835074</v>
       </c>
       <c r="BD45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0</v>
+        <v>0.54361393136729697</v>
       </c>
       <c r="B46" s="0">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>0</v>
+        <v>0.84064531461389003</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>0</v>
+        <v>0.75798353652606321</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
@@ -9503,16 +9503,16 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="0">
-        <v>0</v>
+        <v>0.82744551466084859</v>
       </c>
       <c r="AK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.92465612999611058</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>0</v>
+        <v>0.98207269908022887</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>0</v>
+        <v>0.87863399709413637</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0</v>
+        <v>0.52461740194026896</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -9634,13 +9634,13 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>0</v>
+        <v>0.58356927271363768</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>0</v>
+        <v>0.50778676922166432</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9885,10 +9885,10 @@
         <v>0</v>
       </c>
       <c r="Z48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="0">
-        <v>0</v>
+        <v>0.94220879457661066</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
@@ -9903,13 +9903,13 @@
         <v>0</v>
       </c>
       <c r="AF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0</v>
+        <v>0.60999262549865674</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="BI48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ48" s="0">
         <v>0</v>
@@ -10034,10 +10034,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="0">
-        <v>0</v>
+        <v>0.66977369983606649</v>
       </c>
       <c r="H49" s="0">
-        <v>1</v>
+        <v>0.63030725859808268</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="0">
-        <v>0</v>
+        <v>0.66121112967056161</v>
       </c>
       <c r="V49" s="0">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="0">
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>0</v>
+        <v>0.95556393735655054</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,13 +10166,13 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.85568713100862204</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
       </c>
       <c r="BA49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="0">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0</v>
+        <v>0.61712475578201809</v>
       </c>
       <c r="R50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>0</v>
+        <v>0.9064452457523382</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>0</v>
+        <v>0.8303305727365724</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="BL50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM50" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="0">
-        <v>0</v>
+        <v>0.92067458884013786</v>
       </c>
       <c r="AM51" s="0">
         <v>0</v>
@@ -10557,13 +10557,13 @@
         <v>0</v>
       </c>
       <c r="AR51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="0">
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.9999886654978174</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>1</v>
+        <v>0.60630243605519618</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0</v>
+        <v>0.82183673827224379</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0</v>
+        <v>0.84165262456046297</v>
       </c>
     </row>
     <row r="52">
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>0</v>
+        <v>0.80829068326663744</v>
       </c>
       <c r="M52" s="0">
-        <v>0</v>
+        <v>0.87343803638001616</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>1</v>
+        <v>0.67306889456132379</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="0">
         <v>0</v>
@@ -10915,16 +10915,16 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
       </c>
       <c r="AC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="0">
         <v>0</v>
@@ -10960,10 +10960,10 @@
         <v>0</v>
       </c>
       <c r="AO53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="0">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>0</v>
+        <v>0.62257367286310594</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="BD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0</v>
+        <v>0.6577573391263789</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>0</v>
+        <v>0.55340985058531567</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="0">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="0">
-        <v>0</v>
+        <v>0.92787108054682532</v>
       </c>
       <c r="AG54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.76191691301291109</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="0">
         <v>0</v>
@@ -11285,13 +11285,13 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>0</v>
+        <v>0.88659861578590138</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
       </c>
       <c r="N55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="0">
         <v>0</v>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="AD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="0">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="0">
-        <v>0</v>
+        <v>0.8651487595053251</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="0">
-        <v>0</v>
+        <v>0.60318722370020028</v>
       </c>
       <c r="AT55" s="0">
         <v>0</v>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>1</v>
+        <v>0.80346147992583539</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>0</v>
+        <v>0.85877645733104147</v>
       </c>
     </row>
     <row r="56">
@@ -11464,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>0</v>
+        <v>0.99442556504542068</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11614,10 +11614,10 @@
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.66005576512219055</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="BH56" s="0">
-        <v>0</v>
+        <v>0.64866095792022049</v>
       </c>
       <c r="BI56" s="0">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>1</v>
+        <v>0.75672582866154969</v>
       </c>
       <c r="BL56" s="0">
-        <v>0</v>
+        <v>0.72901605346490328</v>
       </c>
       <c r="BM56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56" s="0">
         <v>0</v>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="0">
-        <v>0</v>
+        <v>0.95687425137524929</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.83282607089477789</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0</v>
+        <v>0.76949212227934294</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>0</v>
+        <v>0.5869805450800194</v>
       </c>
       <c r="AE58" s="0">
         <v>0</v>
@@ -11990,10 +11990,10 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>0</v>
+        <v>0.65239456878418811</v>
       </c>
       <c r="AP58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="0">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="BO58" s="0">
-        <v>0</v>
+        <v>0.7957228018012259</v>
       </c>
       <c r="BP58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>0</v>
+        <v>0.60090424237821649</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0</v>
+        <v>0.74470638450625937</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12151,10 +12151,10 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.64432024884386996</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0</v>
+        <v>0.64289274889848991</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>0</v>
+        <v>0.53438131339720973</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>0</v>
+        <v>0.87458315470240455</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="0">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="0">
-        <v>0</v>
+        <v>0.68074306720508626</v>
       </c>
       <c r="AL60" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>0</v>
+        <v>0.50699636567993134</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12441,13 +12441,13 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
       </c>
       <c r="BD60" s="0">
-        <v>0</v>
+        <v>0.88393868427343114</v>
       </c>
       <c r="BE60" s="0">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="AO61" s="0">
-        <v>0</v>
+        <v>0.68989070666763141</v>
       </c>
       <c r="AP61" s="0">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AV61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="0">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.55785918271379664</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.88487308825129007</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>0</v>
+        <v>0.68335669181160907</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12793,10 +12793,10 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12844,13 +12844,13 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0</v>
+        <v>0.58175035008640608</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>0</v>
+        <v>0.66381023227740599</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.58893954638086354</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.55303632977696948</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>0</v>
+        <v>0.86754256357487858</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="0">
         <v>0</v>
@@ -12993,10 +12993,10 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>0</v>
+        <v>0.54964764682445422</v>
       </c>
       <c r="AG63" s="0">
-        <v>0</v>
+        <v>0.72607075690814149</v>
       </c>
       <c r="AH63" s="0">
         <v>0</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="AN63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>1</v>
+        <v>0.58414215226031763</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.51642401444137431</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0">
-        <v>0</v>
+        <v>0.75272574499692135</v>
       </c>
       <c r="Q64" s="0">
         <v>0</v>
@@ -13172,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="0">
-        <v>0</v>
+        <v>0.81503676806368786</v>
       </c>
       <c r="X64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>0</v>
+        <v>0.79114718445389998</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13226,10 +13226,10 @@
         <v>0</v>
       </c>
       <c r="AO64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>0</v>
+        <v>0.85095835958519528</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="0">
         <v>0</v>
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="BD64" s="0">
-        <v>0</v>
+        <v>0.94079403971689546</v>
       </c>
       <c r="BE64" s="0">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0</v>
+        <v>0.58730375875327145</v>
       </c>
       <c r="BH64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.77367896843789175</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="0">
-        <v>0</v>
+        <v>0.90629838128180162</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0</v>
+        <v>0.9516384700871281</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13477,10 +13477,10 @@
         <v>0</v>
       </c>
       <c r="BD65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.74536975499655922</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>0</v>
+        <v>0.5013404575514645</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13710,16 +13710,16 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.61994611948634359</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.99374834304126436</v>
       </c>
     </row>
     <row r="67">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="0">
-        <v>0</v>
+        <v>0.82321507033974972</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>0</v>
+        <v>0.84474161602351672</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="BF67" s="0">
-        <v>0</v>
+        <v>0.67064683474939968</v>
       </c>
       <c r="BG67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13930,10 +13930,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>0</v>
+        <v>0.75859005327700224</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -13972,13 +13972,13 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0</v>
+        <v>0.69498190985688069</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14089,10 +14089,10 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0</v>
+        <v>0.8424268717191612</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.6898158791614537</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject16.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject16.xlsx
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="0">
-        <v>0.5353720418992256</v>
+        <v>0.88551752005580275</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.70426158392235205</v>
+        <v>0.98784912949161852</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.56933332455952623</v>
+        <v>0.75811010321917394</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>0.77128243467699231</v>
+        <v>0.86754256357487858</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.79974782891422946</v>
+        <v>0.98203063314271222</v>
       </c>
       <c r="C4" s="0">
         <v>0.98784912949161852</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>0.68595186009262021</v>
+        <v>0.82321507033974972</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0.63696561847120403</v>
+        <v>0.76949212227934294</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="0">
-        <v>0.51923385716905313</v>
+        <v>0.66977369983606649</v>
       </c>
       <c r="AX7" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.69389605044739255</v>
+        <v>0.77321143324323682</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.84681488146245809</v>
+        <v>0.92732867960413135</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.5111964023359814</v>
+        <v>0.69674318620072451</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="0">
-        <v>0.59246794832763139</v>
+        <v>0.84064531461389003</v>
       </c>
       <c r="AU9" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.62751977089830624</v>
+        <v>0.81170018729228199</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="0">
-        <v>0.8138410622633383</v>
+        <v>0.96365757945035402</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>0.55060981765386252</v>
+        <v>0.98949138222154875</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>0.51934036273230533</v>
+        <v>0.73305258706232101</v>
       </c>
       <c r="AO12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0.60594851097558078</v>
+        <v>0.80829068326663744</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>0.88099246098000505</v>
+        <v>0.88659861578590138</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.68758051145879562</v>
+        <v>0.89523967034578356</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>0.59057917082961353</v>
+        <v>0.87343803638001616</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>0.87069074396688961</v>
+        <v>0.88833881781824053</v>
       </c>
       <c r="C15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0.96365757945035402</v>
       </c>
       <c r="M15" s="0">
-        <v>0.67729085974192182</v>
+        <v>0.91492533423496614</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>0.56078951224048579</v>
+        <v>0.63148025670726882</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.56397772760895659</v>
+        <v>0.83929183486949299</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0.5361653758717746</v>
+        <v>0.75272574499692135</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>0.88371758201581352</v>
+        <v>0.98173215322926466</v>
       </c>
       <c r="AH17" s="0">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="0">
-        <v>0.59423114617691786</v>
+        <v>0.74855226208937986</v>
       </c>
       <c r="AS17" s="0">
         <v>0.73505271921320692</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="0">
-        <v>0.55845243625966434</v>
+        <v>0.61712475578201809</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0.69456269180345254</v>
+        <v>0.69968637885334206</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.67985748520311373</v>
+        <v>0.90239298459643313</v>
       </c>
       <c r="T18" s="0">
         <v>0.91001741079265408</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.66134195635376747</v>
+        <v>0.82264684602023364</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>0.6004595736700018</v>
+        <v>0.68985349565308995</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.77369498358680633</v>
+        <v>0.91001741079265408</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.78261340186083739</v>
+        <v>0.88090123789898955</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4257,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0.6779109455418717</v>
+        <v>0.95478961254177275</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>0.56977664718124843</v>
+        <v>0.70698951386246078</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.84093683162649158</v>
+        <v>0.8939949006864264</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="0">
-        <v>0.62054806768354087</v>
+        <v>0.66121112967056161</v>
       </c>
       <c r="AX21" s="0">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>0.6225052365111905</v>
+        <v>0.92665843626149691</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="0">
-        <v>0.84665764371315944</v>
+        <v>0.95892930624620942</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
@@ -4699,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="0">
-        <v>0.77739151739588519</v>
+        <v>0.81480263304449818</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>0.78802422789729842</v>
+        <v>0.94508933998498912</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="BL23" s="0">
-        <v>0.6832608237922001</v>
+        <v>0.81503676806368786</v>
       </c>
       <c r="BM23" s="0">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="0">
-        <v>0.53985775297270666</v>
+        <v>0.92165048005632966</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0.61540450961900195</v>
+        <v>0.9858759565266999</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>0.81235260454860936</v>
+        <v>0.87458315470240455</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="0">
-        <v>0.76871435404093424</v>
+        <v>0.95417801299537564</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0.57878155587469071</v>
+        <v>0.64754035701776624</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0.70072661291203742</v>
+        <v>0.98672529177548396</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.61678577653246158</v>
+        <v>0.83194280897397421</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>0.75139379810848661</v>
+        <v>0.87526273776567631</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0.68188754456355671</v>
+        <v>0.7927174507488054</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>0.69082695936774186</v>
+        <v>0.803884324992578</v>
       </c>
       <c r="V27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.60327734755896678</v>
+        <v>0.82590401505009781</v>
       </c>
       <c r="Z27" s="0">
         <v>0.83194280897397421</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>0.62307837118364739</v>
+        <v>0.94220879457661066</v>
       </c>
       <c r="AW27" s="0">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.53465075156968067</v>
+        <v>0.89549528031059378</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="0">
-        <v>0.60273621426488266</v>
+        <v>0.61416067464773483</v>
       </c>
       <c r="Q28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>0.68836833606436376</v>
+        <v>0.84474161602351672</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6594385446940918</v>
+        <v>0.95370735663616191</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0.6495299648510573</v>
+        <v>0.86330938943354107</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0.71396947286929136</v>
+        <v>0.80575646658486333</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0.82379757410967669</v>
+        <v>0.90629838128180162</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.56769443936653619</v>
+        <v>0.64754623679071677</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>0.69702754204406281</v>
+        <v>0.72137650852370427</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="BB32" s="0">
-        <v>0.83511487356728464</v>
+        <v>0.92787108054682532</v>
       </c>
       <c r="BC32" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.63290277021780272</v>
+        <v>0.93408855746302821</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0.53261083716113911</v>
+        <v>0.60999262549865674</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0">
-        <v>0.83219966773199316</v>
+        <v>0.96250636705366222</v>
       </c>
       <c r="AE35" s="0">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="0">
-        <v>0.76543096001122435</v>
+        <v>0.78388597761007928</v>
       </c>
       <c r="AO35" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>0.71654008186369422</v>
+        <v>0.8651487595053251</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>0.68594112877361524</v>
+        <v>0.85468838380307233</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0.87448660888765417</v>
+        <v>0.88717469434049256</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.58182614555943091</v>
+        <v>0.94346187319202035</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="AY38" s="0">
-        <v>0.55831667962554232</v>
+        <v>0.92067458884013786</v>
       </c>
       <c r="AZ38" s="0">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>0.75292533812017437</v>
+        <v>0.79242256914421672</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>0.92692044498818038</v>
+        <v>0.95556393735655054</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0.55064705988967677</v>
+        <v>0.67785966827405453</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.81338364835179866</v>
+        <v>0.83191124056137555</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0.77676527307152332</v>
+        <v>0.8303305727365724</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.94101824586739446</v>
+        <v>0.99734078586890307</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.54700780939603932</v>
+        <v>0.97365672183286933</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="0">
-        <v>0.82500062831119303</v>
+        <v>0.95687425137524929</v>
       </c>
       <c r="BF42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0.67980737310689177</v>
+        <v>0.85095835958519528</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8816,10 +8816,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>0.72016059760599815</v>
+        <v>0.94634582839124071</v>
       </c>
       <c r="N43" s="0">
-        <v>0.8823590296943945</v>
+        <v>0.93183659069096003</v>
       </c>
       <c r="O43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.62029638163392864</v>
+        <v>0.78489874887988065</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>0.57087145545700224</v>
+        <v>0.93648132889232627</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.63453414452168477</v>
+        <v>0.73505271921320692</v>
       </c>
       <c r="R45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.53124391096292833</v>
+        <v>0.749666862512542</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.54361393136729697</v>
+        <v>0.78614529548785272</v>
       </c>
       <c r="B46" s="0">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>0.75798353652606321</v>
+        <v>0.77009475457023502</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="0">
-        <v>0.82744551466084859</v>
+        <v>0.92464010884009462</v>
       </c>
       <c r="AK46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.92465612999611058</v>
+        <v>0.98029926613787888</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>0.98207269908022887</v>
+        <v>0.99442556504542068</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0.52461740194026896</v>
+        <v>0.83214371436263324</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>0.58356927271363768</v>
+        <v>0.83056527251924139</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>0.50778676922166432</v>
+        <v>0.72869476826049151</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0.66977369983606649</v>
       </c>
       <c r="H49" s="0">
-        <v>0.63030725859808268</v>
+        <v>0.84343370262154216</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.85568713100862204</v>
+        <v>0.9999886654978174</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>0.9064452457523382</v>
+        <v>0.97349536515975466</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>0.60630243605519618</v>
+        <v>0.80346147992583539</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>0.67306889456132379</v>
+        <v>0.8746940582830447</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>0.62257367286310594</v>
+        <v>0.89653096374316488</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0.6577573391263789</v>
+        <v>0.66381023227740599</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>0.55340985058531567</v>
+        <v>0.95594605493948437</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="0">
-        <v>0.60318722370020028</v>
+        <v>0.77454458327835074</v>
       </c>
       <c r="AT55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.66005576512219055</v>
+        <v>0.76191691301291109</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="BH56" s="0">
-        <v>0.64866095792022049</v>
+        <v>0.88393868427343114</v>
       </c>
       <c r="BI56" s="0">
         <v>0</v>
@@ -11647,7 +11647,7 @@
         <v>0.75672582866154969</v>
       </c>
       <c r="BL56" s="0">
-        <v>0.72901605346490328</v>
+        <v>0.94079403971689546</v>
       </c>
       <c r="BM56" s="0">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>0.5869805450800194</v>
+        <v>0.73045837220067944</v>
       </c>
       <c r="AE58" s="0">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>0.65239456878418811</v>
+        <v>0.73115546400062348</v>
       </c>
       <c r="AP58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>0.60090424237821649</v>
+        <v>0.9845873651334307</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0.74470638450625937</v>
+        <v>0.82616151737317467</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.64432024884386996</v>
+        <v>0.83282607089477789</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>0.53438131339720973</v>
+        <v>0.92063908320635957</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="0">
-        <v>0.68074306720508626</v>
+        <v>0.92012051951124085</v>
       </c>
       <c r="AL60" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>0.50699636567993134</v>
+        <v>0.87863399709413637</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="AO61" s="0">
-        <v>0.68989070666763141</v>
+        <v>0.81995951097113295</v>
       </c>
       <c r="AP61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.55785918271379664</v>
+        <v>0.58893954638086354</v>
       </c>
       <c r="BK61" s="0">
         <v>0.88487308825129007</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>0.68335669181160907</v>
+        <v>0.74901745268545983</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0.58175035008640608</v>
+        <v>0.82183673827224379</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.55303632977696948</v>
+        <v>0.77367896843789175</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12993,10 +12993,10 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>0.54964764682445422</v>
+        <v>0.76052966348594775</v>
       </c>
       <c r="AG63" s="0">
-        <v>0.72607075690814149</v>
+        <v>0.73830158245210664</v>
       </c>
       <c r="AH63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>0.58414215226031763</v>
+        <v>0.75672582866154969</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.51642401444137431</v>
+        <v>0.88487308825129007</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>0.79114718445389998</v>
+        <v>0.98468020981176108</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0.58730375875327145</v>
+        <v>0.64289274889848991</v>
       </c>
       <c r="BH64" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.9516384700871281</v>
+        <v>0.96011713535295096</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>0.5013404575514645</v>
+        <v>0.77481620576689414</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.61994611948634359</v>
+        <v>0.74536975499655922</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="BF67" s="0">
-        <v>0.67064683474939968</v>
+        <v>0.7957228018012259</v>
       </c>
       <c r="BG67" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>0.75859005327700224</v>
+        <v>0.88324983237038279</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0.69498190985688069</v>
+        <v>0.84165262456046297</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0.8424268717191612</v>
+        <v>0.85877645733104147</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.6898158791614537</v>
+        <v>0.99374834304126436</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>
